--- a/biology/Botanique/Pruche_subalpine/Pruche_subalpine.xlsx
+++ b/biology/Botanique/Pruche_subalpine/Pruche_subalpine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tsuga mertensiana
 La Pruche subalpine (Tsuga mertensiana) est un arbre conifère appartenant au genre Tsuga et à la famille des Pinaceae. Elle doit son nom à son collecteur, le botaniste Karl Heinrich Mertens (1796-1830), qui la découvrit près de  l'actuelle Sitka, au cours de l'expédition du Séniavine.
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arbre est originaire de la côte occidentale de l’Amérique du Nord où il s’étend de la Californie jusqu’au sud de l’Alaska en passant par le Canada. Contrairement au pruche de l'Ouest qui préfère les zones proches de l’océan, on le retrouve plus facilement à l’est dans les rocheuses comme en Colombie-Britannique, en Idaho et dans le Montana. On le retrouve à des altitudes variant de 0 à 1 000 m en Alaska, de 1600 à 2 300 m dans l’Oregon et de 2500 à 3 050 m en Californie.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arbre atteint généralement une taille comprise entre 20 et 40 m et très exceptionnellement approche des 60 m. Son tronc peut atteindre un diamètre de 2 m.
 L’écorce de couleur grisâtre est fine et craquelée. La couronne a une forme conique chez les jeunes arbres avant de devenir plus cylindrique avec l’âge.
